--- a/teaching/traditional_assets/database/data/ireland/ireland_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/ireland/ireland_insurance_general.xlsx
@@ -591,49 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.007990000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.137</v>
-      </c>
-      <c r="F2">
-        <v>-0.063</v>
+        <v>0.00497</v>
       </c>
       <c r="G2">
-        <v>0.2238842569887199</v>
+        <v>0.3646967340590979</v>
       </c>
       <c r="H2">
-        <v>0.2238842569887199</v>
+        <v>0.3646967340590979</v>
       </c>
       <c r="I2">
-        <v>0.2393409706212312</v>
+        <v>0.1977708657335407</v>
       </c>
       <c r="J2">
-        <v>0.2046365298811527</v>
+        <v>0.1724365812800706</v>
       </c>
       <c r="K2">
-        <v>68.40000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="L2">
-        <v>0.167729279058362</v>
+        <v>0.1640746500777605</v>
       </c>
       <c r="M2">
-        <v>19.8</v>
+        <v>0.001</v>
       </c>
       <c r="N2">
-        <v>0.05816686251468861</v>
+        <v>3.109452736318408e-06</v>
       </c>
       <c r="O2">
-        <v>0.2894736842105263</v>
+        <v>1.579778830963665e-05</v>
       </c>
       <c r="P2">
-        <v>19.8</v>
+        <v>0.001</v>
       </c>
       <c r="Q2">
-        <v>0.05816686251468861</v>
+        <v>3.109452736318408e-06</v>
       </c>
       <c r="R2">
-        <v>0.2894736842105263</v>
+        <v>1.579778830963665e-05</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>120.8</v>
+        <v>143.6</v>
       </c>
       <c r="V2">
-        <v>0.354876615746181</v>
+        <v>0.4465174129353233</v>
       </c>
       <c r="W2">
-        <v>0.211306765523633</v>
+        <v>0.1785109983079526</v>
       </c>
       <c r="X2">
-        <v>0.05759025705177928</v>
+        <v>0.05217253380938464</v>
       </c>
       <c r="Y2">
-        <v>0.1537165084718537</v>
+        <v>0.126338464498568</v>
       </c>
       <c r="Z2">
-        <v>1.142316882424315</v>
+        <v>1.282451883123359</v>
       </c>
       <c r="AA2">
-        <v>0.2337597628439685</v>
+        <v>0.2211416183819807</v>
       </c>
       <c r="AB2">
-        <v>0.05287432997933036</v>
+        <v>0.04747123618731727</v>
       </c>
       <c r="AC2">
-        <v>0.1808854328646382</v>
+        <v>0.1736703821946634</v>
       </c>
       <c r="AD2">
-        <v>63.7</v>
+        <v>62.7</v>
       </c>
       <c r="AE2">
-        <v>9.283760903309545</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>72.98376090330954</v>
+        <v>62.7</v>
       </c>
       <c r="AG2">
-        <v>-47.81623909669045</v>
+        <v>-80.89999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.1765520753496179</v>
+        <v>0.1631537861046058</v>
       </c>
       <c r="AI2">
-        <v>0.1693422525951815</v>
+        <v>0.1321948134092347</v>
       </c>
       <c r="AJ2">
-        <v>-0.1634275222557288</v>
+        <v>-0.3361030328209388</v>
       </c>
       <c r="AK2">
-        <v>-0.1541545532797757</v>
+        <v>-0.2446325975204112</v>
       </c>
       <c r="AL2">
-        <v>4.03</v>
+        <v>2.89</v>
       </c>
       <c r="AM2">
-        <v>4.03</v>
+        <v>2.89</v>
       </c>
       <c r="AN2">
-        <v>0.5715054728153598</v>
+        <v>0.7116912599318956</v>
       </c>
       <c r="AO2">
-        <v>24.39205955334987</v>
+        <v>26.40138408304498</v>
       </c>
       <c r="AP2">
-        <v>-0.4289990947128158</v>
+        <v>-0.9182746878547106</v>
       </c>
       <c r="AQ2">
-        <v>24.39205955334987</v>
+        <v>26.40138408304498</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +722,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.007990000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.137</v>
-      </c>
-      <c r="F3">
-        <v>-0.063</v>
+        <v>0.00497</v>
       </c>
       <c r="G3">
-        <v>0.2238842569887199</v>
+        <v>0.3646967340590979</v>
       </c>
       <c r="H3">
-        <v>0.2238842569887199</v>
+        <v>0.3646967340590979</v>
       </c>
       <c r="I3">
-        <v>0.2393409706212312</v>
+        <v>0.1977708657335407</v>
       </c>
       <c r="J3">
-        <v>0.2046365298811527</v>
+        <v>0.1724365812800706</v>
       </c>
       <c r="K3">
-        <v>68.40000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="L3">
-        <v>0.167729279058362</v>
+        <v>0.1640746500777605</v>
       </c>
       <c r="M3">
-        <v>19.8</v>
+        <v>0.001</v>
       </c>
       <c r="N3">
-        <v>0.05816686251468861</v>
+        <v>3.109452736318408e-06</v>
       </c>
       <c r="O3">
-        <v>0.2894736842105263</v>
+        <v>1.579778830963665e-05</v>
       </c>
       <c r="P3">
-        <v>19.8</v>
+        <v>0.001</v>
       </c>
       <c r="Q3">
-        <v>0.05816686251468861</v>
+        <v>3.109452736318408e-06</v>
       </c>
       <c r="R3">
-        <v>0.2894736842105263</v>
+        <v>1.579778830963665e-05</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>120.8</v>
+        <v>143.6</v>
       </c>
       <c r="V3">
-        <v>0.354876615746181</v>
+        <v>0.4465174129353233</v>
       </c>
       <c r="W3">
-        <v>0.211306765523633</v>
+        <v>0.1785109983079526</v>
       </c>
       <c r="X3">
-        <v>0.05759025705177928</v>
+        <v>0.05217253380938464</v>
       </c>
       <c r="Y3">
-        <v>0.1537165084718537</v>
+        <v>0.126338464498568</v>
       </c>
       <c r="Z3">
-        <v>1.142316882424315</v>
+        <v>1.282451883123359</v>
       </c>
       <c r="AA3">
-        <v>0.2337597628439685</v>
+        <v>0.2211416183819807</v>
       </c>
       <c r="AB3">
-        <v>0.05287432997933036</v>
+        <v>0.04747123618731727</v>
       </c>
       <c r="AC3">
-        <v>0.1808854328646382</v>
+        <v>0.1736703821946634</v>
       </c>
       <c r="AD3">
-        <v>63.7</v>
+        <v>62.7</v>
       </c>
       <c r="AE3">
-        <v>9.283760903309545</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>72.98376090330954</v>
+        <v>62.7</v>
       </c>
       <c r="AG3">
-        <v>-47.81623909669045</v>
+        <v>-80.89999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.1765520753496179</v>
+        <v>0.1631537861046058</v>
       </c>
       <c r="AI3">
-        <v>0.1693422525951815</v>
+        <v>0.1321948134092347</v>
       </c>
       <c r="AJ3">
-        <v>-0.1634275222557288</v>
+        <v>-0.3361030328209388</v>
       </c>
       <c r="AK3">
-        <v>-0.1541545532797757</v>
+        <v>-0.2446325975204112</v>
       </c>
       <c r="AL3">
-        <v>4.03</v>
+        <v>2.89</v>
       </c>
       <c r="AM3">
-        <v>4.03</v>
+        <v>2.89</v>
       </c>
       <c r="AN3">
-        <v>0.5715054728153598</v>
+        <v>0.7116912599318956</v>
       </c>
       <c r="AO3">
-        <v>24.39205955334987</v>
+        <v>26.40138408304498</v>
       </c>
       <c r="AP3">
-        <v>-0.4289990947128158</v>
+        <v>-0.9182746878547106</v>
       </c>
       <c r="AQ3">
-        <v>24.39205955334987</v>
+        <v>26.40138408304498</v>
       </c>
     </row>
   </sheetData>
